--- a/models/calculation engines/cbix2/outputs/default/workings_for_viu_adjustmnet_of_trade_bauxite/bauxite_at_hand_cost_to_alumina_bauxite_details-input.xlsx
+++ b/models/calculation engines/cbix2/outputs/default/workings_for_viu_adjustmnet_of_trade_bauxite/bauxite_at_hand_cost_to_alumina_bauxite_details-input.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J95"/>
+  <dimension ref="A1:J96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,7 +497,7 @@
         <v>0.3625</v>
       </c>
       <c r="D2" t="n">
-        <v>0.09</v>
+        <v>0.08999999999999998</v>
       </c>
       <c r="E2" t="n">
         <v>0.0675</v>
@@ -3648,35 +3648,69 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
+        <v>40.1847612826209</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>LT</t>
+        </is>
+      </c>
+      <c r="J95" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
         <v>53.8648018068254</v>
       </c>
-      <c r="B95" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="C95" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="D95" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E95" t="n">
-        <v>0.055</v>
-      </c>
-      <c r="F95" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="G95" t="n">
+      <c r="B96" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="G96" t="n">
         <v>0.03</v>
       </c>
-      <c r="H95" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>LT</t>
-        </is>
-      </c>
-      <c r="J95" t="n">
+      <c r="H96" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>LT</t>
+        </is>
+      </c>
+      <c r="J96" t="n">
         <v>0.33</v>
       </c>
     </row>
